--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B94C24C-E5A6-4CEF-8EB9-7D6F65B94D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B03EB84-9881-45A5-98DD-BF241FDD55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -333,12 +333,6 @@
   </si>
   <si>
     <t>Dev5/ai22</t>
-  </si>
-  <si>
-    <t>Dev5/ai21</t>
-  </si>
-  <si>
-    <t>PT-HE-201</t>
   </si>
   <si>
     <t>DI-6</t>
@@ -986,11 +980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1065,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>44</v>
@@ -1105,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>44</v>
@@ -1145,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>44</v>
@@ -1185,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>44</v>
@@ -1226,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>44</v>
@@ -1266,7 +1260,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>44</v>
@@ -1306,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>44</v>
@@ -1346,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>44</v>
@@ -1386,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>44</v>
@@ -1425,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>44</v>
@@ -1464,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>44</v>
@@ -1500,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>44</v>
@@ -1536,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>44</v>
@@ -1572,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>44</v>
@@ -1605,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>44</v>
@@ -1626,52 +1620,16 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="14">
-        <v>499.70649495375898</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-3.51061102707081</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>10</v>
-      </c>
-      <c r="J17" s="15">
-        <v>14.9</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E291 E5:E16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E290 E5:E16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C291 C5:C16" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C290 C5:C16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2519,7 +2477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2588,7 +2546,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -2632,7 +2590,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -2643,7 +2601,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -2654,7 +2612,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -2665,7 +2623,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -2676,7 +2634,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -2687,7 +2645,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B03EB84-9881-45A5-98DD-BF241FDD55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF601555-DFC4-48D3-A6C4-5D939B4A6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="413" windowWidth="12733" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -311,18 +311,6 @@
     <t>FMS</t>
   </si>
   <si>
-    <t>Dev5/ai19</t>
-  </si>
-  <si>
-    <t>Dev5/ai20</t>
-  </si>
-  <si>
-    <t>PT-FU-202</t>
-  </si>
-  <si>
-    <t>PT-OX-202</t>
-  </si>
-  <si>
     <t>RTD-FU</t>
   </si>
   <si>
@@ -338,12 +326,6 @@
     <t>DI-6</t>
   </si>
   <si>
-    <t>DI-9</t>
-  </si>
-  <si>
-    <t>DI-11</t>
-  </si>
-  <si>
     <t>REED-OX-MAROTTA</t>
   </si>
   <si>
@@ -360,6 +342,12 @@
   </si>
   <si>
     <t>Pounds</t>
+  </si>
+  <si>
+    <t>DI-03</t>
+  </si>
+  <si>
+    <t>DI-1</t>
   </si>
 </sst>
 </file>
@@ -980,11 +968,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1059,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>44</v>
@@ -1099,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>44</v>
@@ -1139,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>44</v>
@@ -1179,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>44</v>
@@ -1220,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>44</v>
@@ -1260,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>44</v>
@@ -1300,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>44</v>
@@ -1340,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>44</v>
@@ -1380,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>44</v>
@@ -1419,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>44</v>
@@ -1458,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>44</v>
@@ -1485,34 +1473,34 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>106</v>
+      <c r="D13" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2">
-        <v>299.727093171143</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-5.2730520568402</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
         <v>0</v>
       </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
       <c r="I13" s="15">
-        <v>10</v>
-      </c>
-      <c r="J13" s="14">
-        <v>14.9</v>
+        <v>5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1521,115 +1509,49 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>106</v>
+      <c r="D14" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="2">
-        <v>300.40325697386402</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.0020088120354602</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
         <v>0</v>
       </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
       <c r="I14" s="15">
-        <v>10</v>
-      </c>
-      <c r="J14" s="14">
-        <v>14.9</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>5</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>5</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E290 E5:E16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E288" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C290 C5:C16" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C288" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2477,7 +2399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2527,7 +2449,7 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -2538,7 +2460,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2560,7 +2482,7 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2590,7 +2512,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -2601,7 +2523,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -2612,10 +2534,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2623,10 +2545,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2645,10 +2567,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\data_gather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF601555-DFC4-48D3-A6C4-5D939B4A6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3D888-3C9D-4681-816C-F704F57AC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="413" windowWidth="12733" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13" yWindow="0" windowWidth="25587" windowHeight="15267" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>DI-1</t>
+  </si>
+  <si>
+    <t>PT-FU-202</t>
+  </si>
+  <si>
+    <t>Dev5/ai19</t>
+  </si>
+  <si>
+    <t>PT-OX-202</t>
+  </si>
+  <si>
+    <t>Dev5/ai20</t>
   </si>
 </sst>
 </file>
@@ -968,11 +980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1543,15 +1555,87 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2">
+        <v>299.727093171143</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-5.2730520568402</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300.40325697386402</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.0020088120354602</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>10</v>
+      </c>
+      <c r="J16" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E288" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E287" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C288" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C287" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\data_gather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3D888-3C9D-4681-816C-F704F57AC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B1A567-788C-4B00-814C-5A73A82BC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="0" windowWidth="25587" windowHeight="15267" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Dev5/ai20</t>
+  </si>
+  <si>
+    <t>Dev5/ai21</t>
+  </si>
+  <si>
+    <t>TC-HE-201</t>
   </si>
 </sst>
 </file>
@@ -980,11 +986,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="118" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>94</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>96</v>
@@ -1626,6 +1632,42 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-292</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>10</v>
+      </c>
+      <c r="J17" s="14">
+        <v>52</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B1A567-788C-4B00-814C-5A73A82BC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E17243-8B60-4F7D-96E9-0FCB1DFB77A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="19200" windowHeight="11720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -988,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="118" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124C3CA-F0F3-4744-B450-F24FA0A8CE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF3FBF-099C-4A95-B57D-884CCFE932C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,9 +1079,9 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1091,7 +1091,7 @@
     <col min="3" max="3" width="6.265625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.73046875" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1328125" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.86328125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.86328125" style="22" bestFit="1" customWidth="1"/>
@@ -1342,8 +1342,6 @@
       <c r="L6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
@@ -1382,8 +1380,6 @@
       <c r="L7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
@@ -1684,8 +1680,8 @@
       <c r="J15" s="10">
         <v>14.9</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
@@ -1720,8 +1716,8 @@
       <c r="J16" s="10">
         <v>14.9</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF3FBF-099C-4A95-B57D-884CCFE932C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89908D23-120C-4B51-BAA4-2E06D866D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Dev5/port0/line9</t>
   </si>
   <si>
-    <t>REED-N2-02</t>
-  </si>
-  <si>
     <t>Dev5/port0/line2</t>
   </si>
   <si>
@@ -379,7 +376,16 @@
     <t>Dev5/port0/line13</t>
   </si>
   <si>
-    <t>PI-DELUGE</t>
+    <t>PI-FU-04</t>
+  </si>
+  <si>
+    <t>Dev5/port0/line12</t>
+  </si>
+  <si>
+    <t>PI-WA-04</t>
+  </si>
+  <si>
+    <t>REED-N2-01</t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
@@ -969,7 +975,7 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="18">
         <v>1000</v>
@@ -977,7 +983,7 @@
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="18">
         <v>100</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="18">
         <v>5</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>7</v>
@@ -1001,31 +1007,31 @@
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="17">
         <v>10.24</v>
@@ -1033,23 +1039,23 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="23">
         <v>-196</v>
@@ -1057,10 +1063,10 @@
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1085,7 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -1113,31 +1119,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>4</v>
@@ -1148,19 +1154,19 @@
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="10">
         <v>200.37327437222999</v>
@@ -1179,7 +1185,7 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1188,19 +1194,19 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F3" s="10">
         <v>745.82606653800997</v>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -1228,19 +1234,19 @@
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F4" s="10">
         <v>200.175466825206</v>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1268,19 +1274,19 @@
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="10">
         <v>1236.7131475156</v>
@@ -1299,7 +1305,7 @@
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1309,19 +1315,19 @@
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="10">
         <v>200.37327437222999</v>
@@ -1340,26 +1346,26 @@
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="10">
         <v>200.41525784486899</v>
@@ -1378,26 +1384,26 @@
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="10">
         <v>22</v>
@@ -1416,7 +1422,7 @@
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10">
         <v>22</v>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10">
         <v>22</v>
@@ -1495,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10">
         <v>22</v>
@@ -1534,7 +1540,7 @@
         <v>52</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="10">
         <v>179.39295000000001</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="17">
         <v>299.727093171143</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F16" s="17">
         <v>300.40325697386402</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="17">
         <v>22</v>
@@ -1800,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1877,28 +1883,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -2356,22 +2362,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2583,11 +2589,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2657,10 +2663,10 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2668,10 +2674,10 @@
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2679,10 +2685,10 @@
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2690,10 +2696,10 @@
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2701,10 +2707,10 @@
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2712,10 +2718,10 @@
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2723,10 +2729,10 @@
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2734,10 +2740,10 @@
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2745,10 +2751,10 @@
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2756,10 +2762,10 @@
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2767,12 +2773,23 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89908D23-120C-4B51-BAA4-2E06D866D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813084A-2FC8-46C3-AB49-292B511C653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2593,7 +2593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813084A-2FC8-46C3-AB49-292B511C653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910409EF-F097-45E9-BF2A-AFA8463CDC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -55,75 +55,42 @@
     <t>Scratch Space.  (Nothing here is parsed or used)</t>
   </si>
   <si>
-    <t>PI-HE-01</t>
-  </si>
-  <si>
     <t>Dev5/port0/line8</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>PI-FU-02</t>
-  </si>
-  <si>
     <t>Dev5/port0/line9</t>
   </si>
   <si>
     <t>Dev5/port0/line2</t>
   </si>
   <si>
-    <t>PI-FU-03</t>
-  </si>
-  <si>
     <t>Dev5/port0/line11</t>
   </si>
   <si>
-    <t>PI-OX-03</t>
-  </si>
-  <si>
     <t>Dev5/port0/line4</t>
   </si>
   <si>
-    <t>REED-BP-01</t>
-  </si>
-  <si>
     <t>Dev5/port0/line5</t>
   </si>
   <si>
-    <t>DI-6</t>
-  </si>
-  <si>
     <t>Dev5/port0/line6</t>
   </si>
   <si>
-    <t>REED-OX-MAROTTA</t>
-  </si>
-  <si>
     <t>Dev5/port0/line7</t>
   </si>
   <si>
-    <t>REED-FU-MAROTTA</t>
-  </si>
-  <si>
     <t>Dev5/port0/line0</t>
   </si>
   <si>
-    <t>DI-1</t>
-  </si>
-  <si>
     <t>Dev5/port0/line1</t>
   </si>
   <si>
-    <t>PI-OX-02</t>
-  </si>
-  <si>
     <t>Dev5/port0/line10</t>
   </si>
   <si>
-    <t>DI-03</t>
-  </si>
-  <si>
     <t>Dev5/port0/line3</t>
   </si>
   <si>
@@ -178,9 +145,6 @@
     <t>Cable #</t>
   </si>
   <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
     <t>Dev5/ai0</t>
   </si>
   <si>
@@ -193,54 +157,36 @@
     <t>AI 01</t>
   </si>
   <si>
-    <t>PT-HE-01</t>
-  </si>
-  <si>
     <t>Dev5/ai1</t>
   </si>
   <si>
     <t>AI 02</t>
   </si>
   <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
     <t>Dev5/ai2</t>
   </si>
   <si>
     <t>AI 03</t>
   </si>
   <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
     <t>Dev5/ai3</t>
   </si>
   <si>
     <t>AI 04</t>
   </si>
   <si>
-    <t>PT-FU-02</t>
-  </si>
-  <si>
     <t>Dev5/ai4</t>
   </si>
   <si>
     <t>AI 05</t>
   </si>
   <si>
-    <t>PT-OX-02</t>
-  </si>
-  <si>
     <t>Dev5/ai5</t>
   </si>
   <si>
     <t>AI 06</t>
   </si>
   <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
     <t>Dev5/ai6</t>
   </si>
   <si>
@@ -250,27 +196,18 @@
     <t>AI 07</t>
   </si>
   <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
     <t>Dev5/ai7</t>
   </si>
   <si>
     <t>AI 09</t>
   </si>
   <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
     <t>Dev5/ai16</t>
   </si>
   <si>
     <t>AI 10</t>
   </si>
   <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
     <t>Dev5/ai17</t>
   </si>
   <si>
@@ -286,36 +223,21 @@
     <t>Pounds</t>
   </si>
   <si>
-    <t>RTD-OX</t>
-  </si>
-  <si>
     <t>Dev5/ai23</t>
   </si>
   <si>
     <t>Volts</t>
   </si>
   <si>
-    <t>RTD-FU</t>
-  </si>
-  <si>
     <t>Dev5/ai22</t>
   </si>
   <si>
-    <t>PT-FU-202</t>
-  </si>
-  <si>
     <t>Dev5/ai19</t>
   </si>
   <si>
-    <t>PT-OX-202</t>
-  </si>
-  <si>
     <t>Dev5/ai20</t>
   </si>
   <si>
-    <t>TC-HE-201</t>
-  </si>
-  <si>
     <t>Dev5/ai21</t>
   </si>
   <si>
@@ -376,16 +298,100 @@
     <t>Dev5/port0/line13</t>
   </si>
   <si>
-    <t>PI-FU-04</t>
-  </si>
-  <si>
     <t>Dev5/port0/line12</t>
   </si>
   <si>
-    <t>PI-WA-04</t>
-  </si>
-  <si>
-    <t>REED-N2-01</t>
+    <t>PI_HE_01</t>
+  </si>
+  <si>
+    <t>PI_FU_02</t>
+  </si>
+  <si>
+    <t>REED_N2_01</t>
+  </si>
+  <si>
+    <t>PI_FU_03</t>
+  </si>
+  <si>
+    <t>PI_OX_03</t>
+  </si>
+  <si>
+    <t>REED_BP_01</t>
+  </si>
+  <si>
+    <t>DI_6</t>
+  </si>
+  <si>
+    <t>REED_OX_MAROTTA</t>
+  </si>
+  <si>
+    <t>REED_FU_MAROTTA</t>
+  </si>
+  <si>
+    <t>DI_1</t>
+  </si>
+  <si>
+    <t>PI_OX_02</t>
+  </si>
+  <si>
+    <t>DI_03</t>
+  </si>
+  <si>
+    <t>PI_WA_04</t>
+  </si>
+  <si>
+    <t>PI_FU_04</t>
+  </si>
+  <si>
+    <t>PT_FU_04</t>
+  </si>
+  <si>
+    <t>PT_HE_01</t>
+  </si>
+  <si>
+    <t>PT_OX_04</t>
+  </si>
+  <si>
+    <t>PT_N2_01</t>
+  </si>
+  <si>
+    <t>PT_FU_02</t>
+  </si>
+  <si>
+    <t>PT_OX_02</t>
+  </si>
+  <si>
+    <t>TC_OX_04</t>
+  </si>
+  <si>
+    <t>TC_FU_04</t>
+  </si>
+  <si>
+    <t>TC_OX_02</t>
+  </si>
+  <si>
+    <t>TC_FU_02</t>
+  </si>
+  <si>
+    <t>_773.437</t>
+  </si>
+  <si>
+    <t>RTD_OX</t>
+  </si>
+  <si>
+    <t>RTD_FU</t>
+  </si>
+  <si>
+    <t>PT_FU_202</t>
+  </si>
+  <si>
+    <t>_5.2730520568402</t>
+  </si>
+  <si>
+    <t>PT_OX_202</t>
+  </si>
+  <si>
+    <t>TC_HE_201</t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
@@ -975,7 +981,7 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B2" s="18">
         <v>1000</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B3" s="18">
         <v>100</v>
@@ -991,7 +997,7 @@
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>5</v>
@@ -999,39 +1005,39 @@
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B9" s="17">
         <v>10.24</v>
@@ -1039,23 +1045,23 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B12" s="23">
         <v>-196</v>
@@ -1063,10 +1069,10 @@
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1085,9 +1091,9 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1119,31 +1125,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>4</v>
@@ -1154,19 +1160,19 @@
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10">
         <v>200.37327437222999</v>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1194,19 +1200,19 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10">
         <v>745.82606653800997</v>
@@ -1225,7 +1231,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -1234,19 +1240,19 @@
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F4" s="10">
         <v>200.175466825206</v>
@@ -1265,7 +1271,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1274,19 +1280,19 @@
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10">
         <v>1236.7131475156</v>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="12" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1315,19 +1321,19 @@
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F6" s="10">
         <v>200.37327437222999</v>
@@ -1346,26 +1352,26 @@
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F7" s="10">
         <v>200.41525784486899</v>
@@ -1384,26 +1390,26 @@
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F8" s="10">
         <v>22</v>
@@ -1422,7 +1428,7 @@
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10">
         <v>22</v>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10">
         <v>22</v>
@@ -1501,7 +1507,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1510,19 +1516,19 @@
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10">
         <v>22</v>
@@ -1540,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1549,25 +1555,25 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10">
         <v>179.39295000000001</v>
       </c>
-      <c r="G12" s="10">
-        <v>-773.43700000000001</v>
+      <c r="G12" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -1657,25 +1663,25 @@
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F15" s="17">
         <v>299.727093171143</v>
       </c>
-      <c r="G15" s="17">
-        <v>-5.2730520568402</v>
+      <c r="G15" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F16" s="17">
         <v>300.40325697386402</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F17" s="17">
         <v>22</v>
@@ -1806,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1883,28 +1889,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -2362,22 +2368,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2591,9 +2597,9 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2641,156 +2647,156 @@
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910409EF-F097-45E9-BF2A-AFA8463CDC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF032C9-B077-48D7-9277-3BAE832A7BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -373,9 +373,6 @@
     <t>TC_FU_02</t>
   </si>
   <si>
-    <t>_773.437</t>
-  </si>
-  <si>
     <t>RTD_OX</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
   </si>
   <si>
     <t>PT_FU_202</t>
-  </si>
-  <si>
-    <t>_5.2730520568402</t>
   </si>
   <si>
     <t>PT_OX_202</t>
@@ -1091,9 +1085,9 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1572,8 +1566,8 @@
       <c r="F12" s="10">
         <v>179.39295000000001</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>111</v>
+      <c r="G12" s="10">
+        <v>-773.43700000000001</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -1591,7 +1585,7 @@
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>61</v>
@@ -1627,7 +1621,7 @@
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>63</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>64</v>
@@ -1680,8 +1674,8 @@
       <c r="F15" s="17">
         <v>299.727093171143</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>115</v>
+      <c r="G15" s="17">
+        <v>-5.2730520568402</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>65</v>
@@ -1714,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="17">
-        <v>300.40325697386402</v>
+        <v>299.727093171143</v>
       </c>
       <c r="G16" s="17">
         <v>2.0020088120354602</v>
@@ -1735,7 +1729,7 @@
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>66</v>
@@ -1750,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="17">
-        <v>22</v>
+        <v>299.727093171143</v>
       </c>
       <c r="G17" s="18">
         <v>93.15</v>
@@ -2597,9 +2591,9 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF032C9-B077-48D7-9277-3BAE832A7BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26018A73-E163-44D8-A983-2B54AC8B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -934,15 +934,15 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="X1" s="27"/>
       <c r="Y1" s="27"/>
     </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -989,7 +989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>-196</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -1085,30 +1085,30 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>111</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>115</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="17">
-        <v>299.727093171143</v>
+        <v>22</v>
       </c>
       <c r="G17" s="18">
         <v>93.15</v>
@@ -1783,19 +1783,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,22 +1857,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="32" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="AE1" s="27"/>
       <c r="AF1" s="27"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1946,7 +1946,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1959,7 +1959,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1973,7 +1973,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1986,7 +1986,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2000,7 +2000,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2013,7 +2013,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2027,7 +2027,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2040,7 +2040,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2054,7 +2054,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2067,7 +2067,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2081,7 +2081,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2094,7 +2094,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2108,7 +2108,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2121,7 +2121,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2135,7 +2135,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2148,7 +2148,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2162,7 +2162,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2175,7 +2175,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2189,7 +2189,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2202,119 +2202,119 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2336,22 +2336,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="30" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="AC1" s="27"/>
       <c r="AD1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2414,7 +2414,7 @@
       <c r="F2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2423,7 +2423,7 @@
       <c r="F3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2432,7 +2432,7 @@
       <c r="F4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2441,7 +2441,7 @@
       <c r="F5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2450,7 +2450,7 @@
       <c r="F6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2459,7 +2459,7 @@
       <c r="F7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2468,7 +2468,7 @@
       <c r="F8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2477,7 +2477,7 @@
       <c r="F9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2486,7 +2486,7 @@
       <c r="F10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2495,7 +2495,7 @@
       <c r="F11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2504,7 +2504,7 @@
       <c r="F12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2513,7 +2513,7 @@
       <c r="F13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2522,7 +2522,7 @@
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2531,7 +2531,7 @@
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2540,7 +2540,7 @@
       <c r="F16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2549,7 +2549,7 @@
       <c r="F17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2558,7 +2558,7 @@
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2567,7 +2567,7 @@
       <c r="F19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2591,22 +2591,22 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26018A73-E163-44D8-A983-2B54AC8B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="AI_TC_Advanced" sheetId="5" r:id="rId5"/>
     <sheet name="DI" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -923,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1079,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1087,7 +1086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1563,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="10">
-        <v>179.39295000000001</v>
+        <v>-179.39295000000001</v>
       </c>
       <c r="G12" s="10">
         <v>-773.43700000000001</v>
@@ -1772,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1846,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2328,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2585,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\PSPL_DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE50F0-FE44-486C-8291-ECC2E7A58367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,6 @@
     <sheet name="DI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -390,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -922,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -933,15 +921,15 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -972,7 +960,7 @@
       <c r="X1" s="27"/>
       <c r="Y1" s="27"/>
     </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -980,7 +968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -988,7 +976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -996,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -1004,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -1012,7 +1000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -1020,7 +1008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -1028,7 +1016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -1036,7 +1024,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -1044,7 +1032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
@@ -1052,7 +1040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
@@ -1060,7 +1048,7 @@
         <v>-196</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -1078,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1089,25 +1077,25 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1139,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -1191,7 +1179,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -1231,7 +1219,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1271,7 +1259,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
@@ -1312,7 +1300,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
@@ -1350,7 +1338,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
@@ -1388,7 +1376,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -1428,7 +1416,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
@@ -1468,7 +1456,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
@@ -1507,7 +1495,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
@@ -1546,7 +1534,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="10">
-        <v>-179.39295000000001</v>
+        <v>179.39295000000001</v>
       </c>
       <c r="G12" s="10">
         <v>-773.43700000000001</v>
@@ -1582,7 +1570,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>111</v>
       </c>
@@ -1618,7 +1606,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -1654,7 +1642,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
@@ -1690,7 +1678,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
@@ -1726,7 +1714,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>115</v>
       </c>
@@ -1771,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1782,19 +1770,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1856,22 +1844,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="32" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1919,7 @@
       <c r="AE1" s="27"/>
       <c r="AF1" s="27"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1945,7 +1933,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1958,7 +1946,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1972,7 +1960,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1985,7 +1973,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1999,7 +1987,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2012,7 +2000,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2026,7 +2014,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2039,7 +2027,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2053,7 +2041,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2066,7 +2054,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2080,7 +2068,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2093,7 +2081,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2107,7 +2095,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2120,7 +2108,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2134,7 +2122,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2147,7 +2135,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2161,7 +2149,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2174,7 +2162,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2188,7 +2176,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2201,119 +2189,119 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2327,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2335,22 +2323,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2392,7 @@
       <c r="AC1" s="27"/>
       <c r="AD1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2413,7 +2401,7 @@
       <c r="F2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2422,7 +2410,7 @@
       <c r="F3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2431,7 +2419,7 @@
       <c r="F4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2440,7 +2428,7 @@
       <c r="F5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2449,7 +2437,7 @@
       <c r="F6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2458,7 +2446,7 @@
       <c r="F7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2467,7 +2455,7 @@
       <c r="F8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2476,7 +2464,7 @@
       <c r="F9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2485,7 +2473,7 @@
       <c r="F10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2494,7 +2482,7 @@
       <c r="F11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2503,7 +2491,7 @@
       <c r="F12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2512,7 +2500,7 @@
       <c r="F13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2521,7 +2509,7 @@
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2530,7 +2518,7 @@
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2539,7 +2527,7 @@
       <c r="F16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2548,7 +2536,7 @@
       <c r="F17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2557,7 +2545,7 @@
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2566,7 +2554,7 @@
       <c r="F19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2584,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2595,17 +2583,17 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2626,7 @@
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2649,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2660,7 +2648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2671,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -2682,7 +2670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2704,7 +2692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2715,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2726,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -2737,7 +2725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2748,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2759,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2770,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2781,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>100</v>
       </c>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A481A0-4B05-48B9-A41B-1C33E152AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2972A-EAC8-4538-B3E3-AEBC7224EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -201,15 +201,6 @@
     <t>AI 11</t>
   </si>
   <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>Dev5/ai18</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
     <t>Dev5/ai23</t>
   </si>
   <si>
@@ -219,15 +210,6 @@
     <t>Dev5/ai22</t>
   </si>
   <si>
-    <t>Dev5/ai19</t>
-  </si>
-  <si>
-    <t>Dev5/ai20</t>
-  </si>
-  <si>
-    <t>Dev5/ai21</t>
-  </si>
-  <si>
     <t>Inputs</t>
   </si>
   <si>
@@ -364,15 +346,6 @@
   </si>
   <si>
     <t>RTD_FU</t>
-  </si>
-  <si>
-    <t>PT_OX_202</t>
-  </si>
-  <si>
-    <t>TC_HE_201</t>
-  </si>
-  <si>
-    <t>PFT</t>
   </si>
 </sst>
 </file>
@@ -931,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
@@ -962,7 +935,7 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="18">
         <v>1000</v>
@@ -970,7 +943,7 @@
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="18">
         <v>100</v>
@@ -978,7 +951,7 @@
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="18">
         <v>5</v>
@@ -986,7 +959,7 @@
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>6</v>
@@ -994,31 +967,31 @@
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B9" s="17">
         <v>10.24</v>
@@ -1026,23 +999,23 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B12" s="23">
         <v>-196</v>
@@ -1050,10 +1023,10 @@
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1141,7 +1114,7 @@
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>35</v>
@@ -1181,7 +1154,7 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>39</v>
@@ -1221,7 +1194,7 @@
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>41</v>
@@ -1261,7 +1234,7 @@
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>43</v>
@@ -1302,7 +1275,7 @@
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>45</v>
@@ -1340,7 +1313,7 @@
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>47</v>
@@ -1378,7 +1351,7 @@
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>49</v>
@@ -1418,7 +1391,7 @@
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -1458,7 +1431,7 @@
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>54</v>
@@ -1497,7 +1470,7 @@
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>56</v>
@@ -1536,31 +1509,31 @@
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="10">
-        <v>179.39295000000001</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-773.43700000000001</v>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="11">
         <v>0</v>
@@ -1572,16 +1545,16 @@
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>37</v>
@@ -1607,144 +1580,64 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>5</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="17">
-        <v>299.727093171143</v>
-      </c>
-      <c r="G15" s="17">
-        <v>-5.2730520568402</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>10</v>
-      </c>
-      <c r="J15" s="10">
-        <v>14.9</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="17">
-        <v>299.727093171143</v>
-      </c>
-      <c r="G16" s="17">
-        <v>2.0020088120354602</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>10</v>
-      </c>
-      <c r="J16" s="10">
-        <v>14.9</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="17">
-        <v>22</v>
-      </c>
-      <c r="G17" s="18">
-        <v>93.15</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>10</v>
-      </c>
-      <c r="J17" s="11">
-        <v>52</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2628,7 +2521,7 @@
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2639,7 +2532,7 @@
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2650,7 +2543,7 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2661,7 +2554,7 @@
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2672,7 +2565,7 @@
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2683,7 +2576,7 @@
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2694,7 +2587,7 @@
     </row>
     <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -2705,7 +2598,7 @@
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -2716,7 +2609,7 @@
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -2727,7 +2620,7 @@
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2738,7 +2631,7 @@
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2749,7 +2642,7 @@
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2760,10 +2653,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -2771,10 +2664,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2972A-EAC8-4538-B3E3-AEBC7224EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A04C1-9261-490E-9021-C9A75B0646EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>RTD_FU</t>
+  </si>
+  <si>
+    <t>Dev5/ai20</t>
+  </si>
+  <si>
+    <t>PT_FU_06</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +393,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1043,11 +1055,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1580,16 +1592,36 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10">
+        <v>14.9</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1601,8 +1633,8 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="10"/>
@@ -1612,16 +1644,6 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="9"/>
@@ -1633,20 +1655,69 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A04C1-9261-490E-9021-C9A75B0646EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D1536-BDC2-4709-A221-7625DBB93364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1181,10 +1181,10 @@
         <v>37</v>
       </c>
       <c r="F3" s="10">
-        <v>745.82606653800997</v>
+        <v>500</v>
       </c>
       <c r="G3" s="10">
-        <v>22.7128261926646</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
